--- a/Creacion matriz/pruebas_matrices.xlsx
+++ b/Creacion matriz/pruebas_matrices.xlsx
@@ -5,27 +5,36 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC28\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC28\Downloads\Analisis-Algoritmos\Creacion matriz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB92A80F-A4A3-4A00-947E-6CABDCEC74AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D49DCFA-2C14-4CA6-A521-CBFB169059CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>T1</t>
   </si>
@@ -42,7 +51,10 @@
     <t>T5</t>
   </si>
   <si>
-    <t>talla</t>
+    <t>Promedio</t>
+  </si>
+  <si>
+    <t>Talla</t>
   </si>
 </sst>
 </file>
@@ -64,15 +76,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -80,12 +98,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -101,6 +136,924 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Promedio X Tiempo</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$B$1:$H$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$7:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11940</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46280</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>146920</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>419660</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4246340</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16308560</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0D1D-41BC-B04A-9218E7C2CAA6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2131610128"/>
+        <c:axId val="2131614928"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2131610128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2131614928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2131614928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2131610128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47467459-3B2B-E0FD-C171-205B5ED24DBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -366,226 +1319,278 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2">
         <v>5</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>5</v>
-      </c>
-      <c r="D1">
+      <c r="D1" s="2">
         <v>10</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="2">
         <v>50</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="2">
         <v>100</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="2">
         <v>500</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="2">
         <v>1000</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="2">
         <v>5000</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="2">
         <v>10000</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="2">
         <v>20000</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>1200</v>
-      </c>
-      <c r="C2">
-        <v>13800</v>
-      </c>
-      <c r="D2">
-        <v>47900</v>
-      </c>
-      <c r="E2">
-        <v>165500</v>
-      </c>
-      <c r="F2">
-        <v>431700</v>
-      </c>
-      <c r="G2">
-        <v>5380400</v>
-      </c>
-      <c r="H2">
-        <v>17519800</v>
-      </c>
-      <c r="I2">
-        <v>393212700</v>
-      </c>
-      <c r="J2">
+      <c r="B2" s="1">
+        <v>900</v>
+      </c>
+      <c r="C2" s="1">
+        <v>10300</v>
+      </c>
+      <c r="D2" s="1">
+        <v>40400</v>
+      </c>
+      <c r="E2" s="1">
+        <v>114700</v>
+      </c>
+      <c r="F2" s="1">
+        <v>414000</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3928400</v>
+      </c>
+      <c r="H2" s="1">
+        <v>15844000</v>
+      </c>
+      <c r="I2" s="1">
+        <v>391956500</v>
+      </c>
+      <c r="J2" s="1">
         <v>1567427100</v>
       </c>
-      <c r="K2">
-        <v>6266852200</v>
+      <c r="K2" s="1">
+        <v>6265105800</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>1300</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="1">
         <v>10300</v>
       </c>
-      <c r="D3">
-        <v>50400</v>
-      </c>
-      <c r="E3">
-        <v>153900</v>
-      </c>
-      <c r="F3">
-        <v>414000</v>
-      </c>
-      <c r="G3">
+      <c r="D3" s="1">
+        <v>43800</v>
+      </c>
+      <c r="E3" s="1">
+        <v>145800</v>
+      </c>
+      <c r="F3" s="1">
+        <v>415000</v>
+      </c>
+      <c r="G3" s="1">
         <v>3930700</v>
       </c>
-      <c r="H3">
-        <v>15844000</v>
-      </c>
-      <c r="I3">
-        <v>393959500</v>
-      </c>
-      <c r="J3">
+      <c r="H3" s="1">
+        <v>15934800</v>
+      </c>
+      <c r="I3" s="1">
+        <v>392011900</v>
+      </c>
+      <c r="J3" s="1">
         <v>1568041300</v>
       </c>
-      <c r="K3">
-        <v>6277431300</v>
+      <c r="K3" s="1">
+        <v>6266852200</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>1100</v>
       </c>
-      <c r="C4">
-        <v>10300</v>
-      </c>
-      <c r="D4">
-        <v>43800</v>
-      </c>
-      <c r="E4">
-        <v>154700</v>
-      </c>
-      <c r="F4">
-        <v>415000</v>
-      </c>
-      <c r="G4">
+      <c r="C4" s="1">
+        <v>10400</v>
+      </c>
+      <c r="D4" s="1">
+        <v>47900</v>
+      </c>
+      <c r="E4" s="1">
+        <v>153900</v>
+      </c>
+      <c r="F4" s="1">
+        <v>417300</v>
+      </c>
+      <c r="G4" s="1">
         <v>3964200</v>
       </c>
-      <c r="H4">
-        <v>16176800</v>
-      </c>
-      <c r="I4">
+      <c r="H4" s="1">
+        <v>16067400</v>
+      </c>
+      <c r="I4" s="1">
         <v>392963000</v>
       </c>
-      <c r="J4">
-        <v>1626444200</v>
-      </c>
-      <c r="K4">
+      <c r="J4" s="1">
+        <v>1570049600</v>
+      </c>
+      <c r="K4" s="1">
         <v>6268932200</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>900</v>
-      </c>
-      <c r="C5">
-        <v>14900</v>
-      </c>
-      <c r="D5">
-        <v>40400</v>
-      </c>
-      <c r="E5">
-        <v>145800</v>
-      </c>
-      <c r="F5">
-        <v>417300</v>
-      </c>
-      <c r="G5">
-        <v>3928400</v>
-      </c>
-      <c r="H5">
-        <v>16067400</v>
-      </c>
-      <c r="I5">
-        <v>392011900</v>
-      </c>
-      <c r="J5">
+      <c r="B5" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C5" s="1">
+        <v>13800</v>
+      </c>
+      <c r="D5" s="1">
+        <v>48900</v>
+      </c>
+      <c r="E5" s="1">
+        <v>154700</v>
+      </c>
+      <c r="F5" s="1">
+        <v>420300</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4028000</v>
+      </c>
+      <c r="H5" s="1">
+        <v>16176800</v>
+      </c>
+      <c r="I5" s="1">
+        <v>393212700</v>
+      </c>
+      <c r="J5" s="1">
         <v>1571595200</v>
       </c>
-      <c r="K5">
-        <v>6265105800</v>
+      <c r="K5" s="1">
+        <v>6271380900</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>1000</v>
-      </c>
-      <c r="C6">
-        <v>10400</v>
-      </c>
-      <c r="D6">
-        <v>48900</v>
-      </c>
-      <c r="E6">
-        <v>114700</v>
-      </c>
-      <c r="F6">
-        <v>420300</v>
-      </c>
-      <c r="G6">
-        <v>4028000</v>
-      </c>
-      <c r="H6">
-        <v>15934800</v>
-      </c>
-      <c r="I6">
-        <v>391956500</v>
-      </c>
-      <c r="J6">
-        <v>1570049600</v>
-      </c>
-      <c r="K6">
-        <v>6271380900</v>
+      <c r="B6" s="1">
+        <v>1300</v>
+      </c>
+      <c r="C6" s="1">
+        <v>14900</v>
+      </c>
+      <c r="D6" s="1">
+        <v>50400</v>
+      </c>
+      <c r="E6" s="1">
+        <v>165500</v>
+      </c>
+      <c r="F6" s="1">
+        <v>431700</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5380400</v>
+      </c>
+      <c r="H6" s="1">
+        <v>17519800</v>
+      </c>
+      <c r="I6" s="1">
+        <v>393959500</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1626444200</v>
+      </c>
+      <c r="K6" s="1">
+        <v>6277431300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <f>AVERAGE(B2:B6)</f>
+        <v>1100</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" ref="C7:K7" si="0">AVERAGE(C2:C6)</f>
+        <v>11940</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>46280</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>146920</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>419660</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>4246340</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>16308560</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>392820720</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="0"/>
+        <v>1580711480</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="0"/>
+        <v>6269940480</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K2:K6">
+    <sortCondition ref="K2:K6"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>